--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914390.832595</v>
+        <v>3912503.251078598</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.20057470980941</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>11.10798889984649</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>273.0065037122686</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.71969997626057</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>78.31629253725393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>151.7669664523472</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>169.6822018002582</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.99586874835499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185851</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>89.35789353273724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>113.9765264254016</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>173.5468522613767</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0424879565116</v>
       </c>
     </row>
     <row r="20">
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>89.15058872626186</v>
       </c>
       <c r="T22" t="n">
-        <v>194.5686234655091</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>45.37449962547304</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.525532102718371</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.872226235589</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0205566759035</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965555</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>74.19096131463488</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437444</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571517</v>
+        <v>46.15337586178993</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523557</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700206</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080342</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723538</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>786.7375321813302</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>786.7375321813302</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>428.4718335745796</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.766673031379</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.804156090968</v>
+        <v>1112.882134442039</v>
       </c>
       <c r="D5" t="n">
-        <v>643.5384574842171</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>343.6305310456812</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>329.7071269842721</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694738</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>290.7987205870807</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.309493689272</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>959.3469767488602</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>959.3469767488602</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.048665729205</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.909333753394</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,19 +5036,19 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,16 +5057,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147079</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571596</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1333.825180851558</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.082206476518</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706311</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623274</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.0071030383451</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0709201104382</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247867</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383451</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383451</v>
+        <v>531.3977182706312</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383451</v>
+        <v>531.3977182706312</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383451</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383451</v>
+        <v>416.2699138005286</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.946699347402</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.4221461351938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383434</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324565</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617345007</v>
+        <v>420.3226148324565</v>
       </c>
       <c r="X19" t="n">
-        <v>745.0706109654334</v>
+        <v>420.3226148324565</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.0706109654334</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5762,22 +5762,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851558</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829212</v>
+        <v>416.2699138005287</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550145</v>
+        <v>247.3337308726218</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426788</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1302.382307461429</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>1302.382307461429</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>1302.382307461429</v>
+        <v>865.0520438420763</v>
       </c>
       <c r="W22" t="n">
-        <v>1012.965137424469</v>
+        <v>865.0520438420763</v>
       </c>
       <c r="X22" t="n">
-        <v>784.9755865264513</v>
+        <v>637.0624929440589</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829212</v>
+        <v>416.2699138005288</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,16 +6069,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.9398668627139</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>289.939866862714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>289.939866862714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>835.4163915387941</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345007</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364835</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929535</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,13 +6239,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>954.814612315055</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170377</v>
+        <v>757.7241344124297</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735075</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315608</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.0058129140962</v>
+        <v>439.5324299542208</v>
       </c>
       <c r="C31" t="n">
-        <v>525.8304952675597</v>
+        <v>439.5324299542208</v>
       </c>
       <c r="D31" t="n">
-        <v>431.4747211365946</v>
+        <v>439.5324299542208</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723165</v>
+        <v>347.3802016531986</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557767</v>
+        <v>256.2511194366593</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569678</v>
+        <v>143.8366630378515</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>143.8366630378515</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933505</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056073</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1768.101513126949</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.733739621878</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.810116697362</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1102.153811941772</v>
+        <v>902.6804289818953</v>
       </c>
       <c r="X31" t="n">
-        <v>929.925126325125</v>
+        <v>730.4517433652488</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.8934124629652</v>
+        <v>565.4200295030896</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211722</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,25 +6932,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1113.485206214222</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.347833878255</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>2013.406634128704</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.274692278279</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1925.814757496976</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2446.115379232724</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>474.7746905116418</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>721.5398184181058</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1028.859951698067</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7783,16 +7783,16 @@
         <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103127</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010312</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>171.2966883299258</v>
       </c>
       <c r="N12" t="n">
-        <v>73.64859338270776</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>20.63789864135478</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>38.86002301949887</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>171.2966883299264</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305221</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>113.6026921294536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>171.2966883299256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="L30" t="n">
-        <v>285.1031356539326</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>297.2466435761023</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,16 +10665,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>9.900512684485193</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.23759968302141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>62.79465928983205</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338633</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.25757948547503</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>111.7331289636356</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>52.16280312766037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.54216539558318</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>108.7702212573414</v>
       </c>
       <c r="T22" t="n">
-        <v>26.9789375928801</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>101.059463021096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>189.3952778808849</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.9597539463483</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>39.56409667619127</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
-        <v>17.0397447033775</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897933</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.06261297392483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523597</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678385.4645851273</v>
+        <v>678385.4645851275</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="F2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="F2" t="n">
-        <v>723403.7605147614</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887491</v>
+        <v>752620.954088749</v>
       </c>
       <c r="L2" t="n">
+        <v>759463.6371244617</v>
+      </c>
+      <c r="M2" t="n">
         <v>759463.6371244612</v>
-      </c>
-      <c r="M2" t="n">
-        <v>759463.6371244614</v>
       </c>
       <c r="N2" t="n">
         <v>759463.6371244611</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="P2" t="n">
         <v>759463.6371244611</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284544</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086708</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284546</v>
+        <v>44162.60530284582</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007591</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007489</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007481</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020393</v>
+        <v>26081.35417020404</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732788</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941243</v>
+        <v>-61280.36886941266</v>
       </c>
       <c r="C6" t="n">
-        <v>528687.5103451317</v>
+        <v>528687.510345132</v>
       </c>
       <c r="D6" t="n">
-        <v>528687.5103451322</v>
+        <v>528687.510345132</v>
       </c>
       <c r="E6" t="n">
-        <v>98339.66643314122</v>
+        <v>98242.20730716891</v>
       </c>
       <c r="F6" t="n">
-        <v>623499.702910037</v>
+        <v>623402.243784065</v>
       </c>
       <c r="G6" t="n">
-        <v>623499.7029100372</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="H6" t="n">
-        <v>623499.7029100369</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="I6" t="n">
-        <v>623499.7029100372</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="J6" t="n">
-        <v>447076.4837174445</v>
+        <v>446979.0245914719</v>
       </c>
       <c r="K6" t="n">
-        <v>585748.786085477</v>
+        <v>585730.292347542</v>
       </c>
       <c r="L6" t="n">
-        <v>621070.1056062408</v>
+        <v>621070.1056062416</v>
       </c>
       <c r="M6" t="n">
-        <v>496611.997173271</v>
+        <v>496611.9971732707</v>
       </c>
       <c r="N6" t="n">
-        <v>631413.0124071079</v>
+        <v>631413.0124071077</v>
       </c>
       <c r="O6" t="n">
-        <v>631413.0124071077</v>
+        <v>631413.0124071087</v>
       </c>
       <c r="P6" t="n">
-        <v>587250.4071042623</v>
+        <v>587250.4071042619</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26744,37 +26744,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108385</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855683</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>355.7297953624524</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>151.8478780110173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>370.8223811724153</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>50.91626905208858</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.89577304195178</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>67.10475548567732</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>230.1634036199146</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.0700566698767</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>46.76331713866857</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.5887846037398</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,13 +28138,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.245315045001917e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.246185343758608e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>481.7210653803921</v>
       </c>
       <c r="N12" t="n">
-        <v>406.8431667807205</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>227.7313135728794</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>245.9534379510236</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>448.8807855431339</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>504.4912617279393</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541604</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556548</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>446.7972655274665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>453.6603905710338</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>339.5776813541859</v>
       </c>
       <c r="L30" t="n">
-        <v>534.360840609957</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412235</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043158</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>630.4412169741153</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3248897349516</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>353.0984438117331</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.2506324680955</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>213.3700978777713</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
